--- a/data_files/data/cytokine_data.xlsx
+++ b/data_files/data/cytokine_data.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21601"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="11208"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9CB847C0-2A1A-40C4-B8C2-A79C596F8FC9}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{48B6E8B5-A6DD-7344-B68C-C43C055EF2C5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-90" yWindow="-90" windowWidth="19380" windowHeight="10980" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="19380" windowHeight="10980" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="df" sheetId="3" r:id="rId1"/>
@@ -495,9 +495,9 @@
       <selection activeCell="E20" sqref="E20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.75" x14ac:dyDescent="0.75"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:38" x14ac:dyDescent="0.75">
+    <row r="1" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -613,7 +613,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="2" spans="1:38" x14ac:dyDescent="0.75">
+    <row r="2" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A2" s="2">
         <v>3200</v>
       </c>
@@ -729,12 +729,12 @@
         <v>113.09</v>
       </c>
     </row>
-    <row r="3" spans="1:38" x14ac:dyDescent="0.75">
+    <row r="3" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A3" s="2">
         <v>3201</v>
       </c>
     </row>
-    <row r="4" spans="1:38" x14ac:dyDescent="0.75">
+    <row r="4" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A4" s="2">
         <v>3202</v>
       </c>
@@ -850,12 +850,12 @@
         <v>77.210000000000008</v>
       </c>
     </row>
-    <row r="5" spans="1:38" x14ac:dyDescent="0.75">
+    <row r="5" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A5" s="2">
         <v>3203</v>
       </c>
     </row>
-    <row r="6" spans="1:38" x14ac:dyDescent="0.75">
+    <row r="6" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A6" s="2">
         <v>3204</v>
       </c>
@@ -971,12 +971,12 @@
         <v>45.34</v>
       </c>
     </row>
-    <row r="7" spans="1:38" x14ac:dyDescent="0.75">
+    <row r="7" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A7" s="2">
         <v>3205</v>
       </c>
     </row>
-    <row r="8" spans="1:38" x14ac:dyDescent="0.75">
+    <row r="8" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A8" s="2">
         <v>3206</v>
       </c>
@@ -1092,17 +1092,17 @@
         <v>32.599999999999987</v>
       </c>
     </row>
-    <row r="9" spans="1:38" x14ac:dyDescent="0.75">
+    <row r="9" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A9" s="2">
         <v>3207</v>
       </c>
     </row>
-    <row r="10" spans="1:38" x14ac:dyDescent="0.75">
+    <row r="10" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A10" s="2">
         <v>3208</v>
       </c>
     </row>
-    <row r="11" spans="1:38" x14ac:dyDescent="0.75">
+    <row r="11" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A11" s="2">
         <v>3209</v>
       </c>
@@ -1218,7 +1218,7 @@
         <v>400.35000000000008</v>
       </c>
     </row>
-    <row r="12" spans="1:38" x14ac:dyDescent="0.75">
+    <row r="12" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A12" s="2">
         <v>3210</v>
       </c>
@@ -1334,7 +1334,7 @@
         <v>2.4700000000000002</v>
       </c>
     </row>
-    <row r="13" spans="1:38" x14ac:dyDescent="0.75">
+    <row r="13" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A13" s="2">
         <v>3211</v>
       </c>
@@ -1450,7 +1450,7 @@
         <v>12.33</v>
       </c>
     </row>
-    <row r="14" spans="1:38" x14ac:dyDescent="0.75">
+    <row r="14" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A14" s="2">
         <v>3212</v>
       </c>
@@ -1566,12 +1566,12 @@
         <v>5.71</v>
       </c>
     </row>
-    <row r="15" spans="1:38" x14ac:dyDescent="0.75">
+    <row r="15" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A15" s="2">
         <v>3213</v>
       </c>
     </row>
-    <row r="16" spans="1:38" x14ac:dyDescent="0.75">
+    <row r="16" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A16" s="2">
         <v>3214</v>
       </c>
@@ -1687,12 +1687,12 @@
         <v>429.17</v>
       </c>
     </row>
-    <row r="17" spans="1:38" x14ac:dyDescent="0.75">
+    <row r="17" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A17" s="2">
         <v>3215</v>
       </c>
     </row>
-    <row r="18" spans="1:38" x14ac:dyDescent="0.75">
+    <row r="18" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A18" s="2">
         <v>3216</v>
       </c>
@@ -1808,7 +1808,7 @@
         <v>341.99999999999989</v>
       </c>
     </row>
-    <row r="19" spans="1:38" x14ac:dyDescent="0.75">
+    <row r="19" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A19" s="2">
         <v>3217</v>
       </c>
@@ -1924,17 +1924,17 @@
         <v>79.390000000000015</v>
       </c>
     </row>
-    <row r="20" spans="1:38" x14ac:dyDescent="0.75">
+    <row r="20" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A20" s="2">
         <v>3218</v>
       </c>
     </row>
-    <row r="21" spans="1:38" x14ac:dyDescent="0.75">
+    <row r="21" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A21" s="2">
         <v>3219</v>
       </c>
     </row>
-    <row r="22" spans="1:38" x14ac:dyDescent="0.75">
+    <row r="22" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A22" s="2">
         <v>3220</v>
       </c>
@@ -2050,7 +2050,7 @@
         <v>76.94</v>
       </c>
     </row>
-    <row r="23" spans="1:38" x14ac:dyDescent="0.75">
+    <row r="23" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A23" s="2">
         <v>3221</v>
       </c>
@@ -2166,17 +2166,17 @@
         <v>6.94</v>
       </c>
     </row>
-    <row r="24" spans="1:38" x14ac:dyDescent="0.75">
+    <row r="24" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A24" s="2">
         <v>3222</v>
       </c>
     </row>
-    <row r="25" spans="1:38" x14ac:dyDescent="0.75">
+    <row r="25" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A25" s="2">
         <v>3223</v>
       </c>
     </row>
-    <row r="26" spans="1:38" x14ac:dyDescent="0.75">
+    <row r="26" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A26" s="2">
         <v>3224</v>
       </c>
@@ -2292,7 +2292,7 @@
         <v>305.00000000000011</v>
       </c>
     </row>
-    <row r="27" spans="1:38" x14ac:dyDescent="0.75">
+    <row r="27" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A27" s="2">
         <v>3225</v>
       </c>
@@ -2408,7 +2408,7 @@
         <v>62.12</v>
       </c>
     </row>
-    <row r="28" spans="1:38" x14ac:dyDescent="0.75">
+    <row r="28" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A28" s="2">
         <v>3226</v>
       </c>
@@ -2524,7 +2524,7 @@
         <v>6.94</v>
       </c>
     </row>
-    <row r="29" spans="1:38" x14ac:dyDescent="0.75">
+    <row r="29" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A29" s="2">
         <v>3227</v>
       </c>
@@ -2640,7 +2640,7 @@
         <v>63.200000000000017</v>
       </c>
     </row>
-    <row r="30" spans="1:38" x14ac:dyDescent="0.75">
+    <row r="30" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A30" s="2">
         <v>3228</v>
       </c>
@@ -2756,7 +2756,7 @@
         <v>6.94</v>
       </c>
     </row>
-    <row r="31" spans="1:38" x14ac:dyDescent="0.75">
+    <row r="31" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A31" s="2">
         <v>3229</v>
       </c>
@@ -2872,12 +2872,12 @@
         <v>266.00000000000011</v>
       </c>
     </row>
-    <row r="32" spans="1:38" x14ac:dyDescent="0.75">
+    <row r="32" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A32" s="2">
         <v>3230</v>
       </c>
     </row>
-    <row r="33" spans="1:38" x14ac:dyDescent="0.75">
+    <row r="33" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A33" s="2">
         <v>3231</v>
       </c>
@@ -2993,7 +2993,7 @@
         <v>123.0899999999999</v>
       </c>
     </row>
-    <row r="34" spans="1:38" x14ac:dyDescent="0.75">
+    <row r="34" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A34" s="2">
         <v>3232</v>
       </c>
@@ -3109,12 +3109,12 @@
         <v>0.98</v>
       </c>
     </row>
-    <row r="35" spans="1:38" x14ac:dyDescent="0.75">
+    <row r="35" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A35" s="2">
         <v>3233</v>
       </c>
     </row>
-    <row r="36" spans="1:38" x14ac:dyDescent="0.75">
+    <row r="36" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A36" s="2">
         <v>3234</v>
       </c>
@@ -3230,7 +3230,7 @@
         <v>297.27999999999997</v>
       </c>
     </row>
-    <row r="37" spans="1:38" x14ac:dyDescent="0.75">
+    <row r="37" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A37" s="2">
         <v>3235</v>
       </c>
@@ -3346,7 +3346,7 @@
         <v>8.7699999999999978</v>
       </c>
     </row>
-    <row r="38" spans="1:38" x14ac:dyDescent="0.75">
+    <row r="38" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A38" s="2">
         <v>3236</v>
       </c>
@@ -3462,12 +3462,12 @@
         <v>25.12</v>
       </c>
     </row>
-    <row r="39" spans="1:38" x14ac:dyDescent="0.75">
+    <row r="39" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A39" s="2">
         <v>3237</v>
       </c>
     </row>
-    <row r="40" spans="1:38" x14ac:dyDescent="0.75">
+    <row r="40" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A40" s="2">
         <v>3238</v>
       </c>
@@ -3583,12 +3583,12 @@
         <v>6.94</v>
       </c>
     </row>
-    <row r="41" spans="1:38" x14ac:dyDescent="0.75">
+    <row r="41" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A41" s="2">
         <v>3239</v>
       </c>
     </row>
-    <row r="42" spans="1:38" x14ac:dyDescent="0.75">
+    <row r="42" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A42" s="2">
         <v>3240</v>
       </c>
@@ -3704,7 +3704,7 @@
         <v>365.99999999999989</v>
       </c>
     </row>
-    <row r="43" spans="1:38" x14ac:dyDescent="0.75">
+    <row r="43" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A43" s="2">
         <v>3241</v>
       </c>
@@ -3820,12 +3820,12 @@
         <v>19.07</v>
       </c>
     </row>
-    <row r="44" spans="1:38" x14ac:dyDescent="0.75">
+    <row r="44" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A44" s="2">
         <v>3242</v>
       </c>
     </row>
-    <row r="45" spans="1:38" x14ac:dyDescent="0.75">
+    <row r="45" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A45" s="2">
         <v>3243</v>
       </c>
@@ -3941,7 +3941,7 @@
         <v>0.98</v>
       </c>
     </row>
-    <row r="46" spans="1:38" x14ac:dyDescent="0.75">
+    <row r="46" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A46" s="2">
         <v>3244</v>
       </c>
@@ -4057,22 +4057,22 @@
         <v>218.8599999999999</v>
       </c>
     </row>
-    <row r="47" spans="1:38" x14ac:dyDescent="0.75">
+    <row r="47" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A47" s="2">
         <v>3245</v>
       </c>
     </row>
-    <row r="48" spans="1:38" x14ac:dyDescent="0.75">
+    <row r="48" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A48" s="2">
         <v>3246</v>
       </c>
     </row>
-    <row r="49" spans="1:38" x14ac:dyDescent="0.75">
+    <row r="49" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A49" s="2">
         <v>3247</v>
       </c>
     </row>
-    <row r="50" spans="1:38" x14ac:dyDescent="0.75">
+    <row r="50" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A50" s="2">
         <v>3248</v>
       </c>
@@ -4188,17 +4188,17 @@
         <v>176.00000000000011</v>
       </c>
     </row>
-    <row r="51" spans="1:38" x14ac:dyDescent="0.75">
+    <row r="51" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A51" s="2">
         <v>3249</v>
       </c>
     </row>
-    <row r="52" spans="1:38" x14ac:dyDescent="0.75">
+    <row r="52" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A52" s="2">
         <v>3250</v>
       </c>
     </row>
-    <row r="53" spans="1:38" x14ac:dyDescent="0.75">
+    <row r="53" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A53" s="2">
         <v>3251</v>
       </c>
@@ -4314,7 +4314,7 @@
         <v>1370</v>
       </c>
     </row>
-    <row r="54" spans="1:38" x14ac:dyDescent="0.75">
+    <row r="54" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A54" s="2">
         <v>3252</v>
       </c>
@@ -4430,7 +4430,7 @@
         <v>29.38</v>
       </c>
     </row>
-    <row r="55" spans="1:38" x14ac:dyDescent="0.75">
+    <row r="55" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A55" s="2">
         <v>3253</v>
       </c>
@@ -4546,7 +4546,7 @@
         <v>110.88</v>
       </c>
     </row>
-    <row r="56" spans="1:38" x14ac:dyDescent="0.75">
+    <row r="56" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A56" s="2">
         <v>3254</v>
       </c>
@@ -4662,17 +4662,17 @@
         <v>273.71000000000009</v>
       </c>
     </row>
-    <row r="57" spans="1:38" x14ac:dyDescent="0.75">
+    <row r="57" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A57" s="2">
         <v>3255</v>
       </c>
     </row>
-    <row r="58" spans="1:38" x14ac:dyDescent="0.75">
+    <row r="58" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A58" s="2">
         <v>3256</v>
       </c>
     </row>
-    <row r="59" spans="1:38" x14ac:dyDescent="0.75">
+    <row r="59" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A59" s="2">
         <v>3257</v>
       </c>
@@ -4788,7 +4788,7 @@
         <v>0.98</v>
       </c>
     </row>
-    <row r="60" spans="1:38" x14ac:dyDescent="0.75">
+    <row r="60" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A60" s="2">
         <v>3258</v>
       </c>
@@ -4904,12 +4904,12 @@
         <v>19.68</v>
       </c>
     </row>
-    <row r="61" spans="1:38" x14ac:dyDescent="0.75">
+    <row r="61" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A61" s="2">
         <v>3259</v>
       </c>
     </row>
-    <row r="62" spans="1:38" x14ac:dyDescent="0.75">
+    <row r="62" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A62" s="2">
         <v>3260</v>
       </c>
@@ -5025,7 +5025,7 @@
         <v>88.73</v>
       </c>
     </row>
-    <row r="63" spans="1:38" x14ac:dyDescent="0.75">
+    <row r="63" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A63" s="2">
         <v>3261</v>
       </c>
@@ -5141,7 +5141,7 @@
         <v>185.1</v>
       </c>
     </row>
-    <row r="64" spans="1:38" x14ac:dyDescent="0.75">
+    <row r="64" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A64" s="2">
         <v>3262</v>
       </c>
@@ -5257,17 +5257,17 @@
         <v>60.469999999999992</v>
       </c>
     </row>
-    <row r="65" spans="1:38" x14ac:dyDescent="0.75">
+    <row r="65" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A65" s="2">
         <v>3263</v>
       </c>
     </row>
-    <row r="66" spans="1:38" x14ac:dyDescent="0.75">
+    <row r="66" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A66" s="2">
         <v>3264</v>
       </c>
     </row>
-    <row r="67" spans="1:38" x14ac:dyDescent="0.75">
+    <row r="67" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A67" s="2">
         <v>3265</v>
       </c>
@@ -5383,7 +5383,7 @@
         <v>6.94</v>
       </c>
     </row>
-    <row r="68" spans="1:38" x14ac:dyDescent="0.75">
+    <row r="68" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A68" s="2">
         <v>3266</v>
       </c>
@@ -5499,17 +5499,17 @@
         <v>269.36999999999989</v>
       </c>
     </row>
-    <row r="69" spans="1:38" x14ac:dyDescent="0.75">
+    <row r="69" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A69" s="2">
         <v>3267</v>
       </c>
     </row>
-    <row r="70" spans="1:38" x14ac:dyDescent="0.75">
+    <row r="70" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A70" s="2">
         <v>3268</v>
       </c>
     </row>
-    <row r="71" spans="1:38" x14ac:dyDescent="0.75">
+    <row r="71" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A71" s="2">
         <v>3269</v>
       </c>
@@ -5625,12 +5625,12 @@
         <v>109.44</v>
       </c>
     </row>
-    <row r="72" spans="1:38" x14ac:dyDescent="0.75">
+    <row r="72" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A72" s="2">
         <v>3270</v>
       </c>
     </row>
-    <row r="73" spans="1:38" x14ac:dyDescent="0.75">
+    <row r="73" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A73" s="2">
         <v>3271</v>
       </c>
@@ -5746,7 +5746,7 @@
         <v>15.17</v>
       </c>
     </row>
-    <row r="74" spans="1:38" x14ac:dyDescent="0.75">
+    <row r="74" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A74" s="2">
         <v>3272</v>
       </c>
@@ -5862,7 +5862,7 @@
         <v>0.98</v>
       </c>
     </row>
-    <row r="75" spans="1:38" x14ac:dyDescent="0.75">
+    <row r="75" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A75" s="2">
         <v>3273</v>
       </c>
@@ -5978,12 +5978,12 @@
         <v>81.930000000000021</v>
       </c>
     </row>
-    <row r="76" spans="1:38" x14ac:dyDescent="0.75">
+    <row r="76" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A76" s="2">
         <v>3274</v>
       </c>
     </row>
-    <row r="77" spans="1:38" x14ac:dyDescent="0.75">
+    <row r="77" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A77" s="2">
         <v>3275</v>
       </c>
@@ -6099,7 +6099,7 @@
         <v>68.339999999999989</v>
       </c>
     </row>
-    <row r="78" spans="1:38" x14ac:dyDescent="0.75">
+    <row r="78" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A78" s="2">
         <v>3276</v>
       </c>
@@ -6215,7 +6215,7 @@
         <v>365.49999999999977</v>
       </c>
     </row>
-    <row r="79" spans="1:38" x14ac:dyDescent="0.75">
+    <row r="79" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A79" s="2">
         <v>3277</v>
       </c>
@@ -6331,7 +6331,7 @@
         <v>134.41999999999999</v>
       </c>
     </row>
-    <row r="80" spans="1:38" x14ac:dyDescent="0.75">
+    <row r="80" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A80" s="2">
         <v>3278</v>
       </c>
@@ -6447,7 +6447,7 @@
         <v>8.81</v>
       </c>
     </row>
-    <row r="81" spans="1:38" x14ac:dyDescent="0.75">
+    <row r="81" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A81" s="2">
         <v>3279</v>
       </c>
@@ -6563,7 +6563,7 @@
         <v>34.210000000000008</v>
       </c>
     </row>
-    <row r="82" spans="1:38" x14ac:dyDescent="0.75">
+    <row r="82" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A82" s="2">
         <v>3280</v>
       </c>
@@ -6679,12 +6679,12 @@
         <v>42.96</v>
       </c>
     </row>
-    <row r="83" spans="1:38" x14ac:dyDescent="0.75">
+    <row r="83" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A83" s="2">
         <v>3281</v>
       </c>
     </row>
-    <row r="84" spans="1:38" x14ac:dyDescent="0.75">
+    <row r="84" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A84" s="2">
         <v>3282</v>
       </c>
@@ -6800,12 +6800,12 @@
         <v>56.55</v>
       </c>
     </row>
-    <row r="85" spans="1:38" x14ac:dyDescent="0.75">
+    <row r="85" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A85" s="2">
         <v>3283</v>
       </c>
     </row>
-    <row r="86" spans="1:38" x14ac:dyDescent="0.75">
+    <row r="86" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A86" s="2">
         <v>3284</v>
       </c>
@@ -6921,7 +6921,7 @@
         <v>75.739999999999995</v>
       </c>
     </row>
-    <row r="87" spans="1:38" x14ac:dyDescent="0.75">
+    <row r="87" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A87" s="2">
         <v>3285</v>
       </c>
@@ -7037,7 +7037,7 @@
         <v>0.83</v>
       </c>
     </row>
-    <row r="88" spans="1:38" x14ac:dyDescent="0.75">
+    <row r="88" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A88" s="2">
         <v>3286</v>
       </c>
@@ -7153,7 +7153,7 @@
         <v>13.61</v>
       </c>
     </row>
-    <row r="89" spans="1:38" x14ac:dyDescent="0.75">
+    <row r="89" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A89" s="2">
         <v>3287</v>
       </c>
@@ -7269,17 +7269,17 @@
         <v>126.22</v>
       </c>
     </row>
-    <row r="90" spans="1:38" x14ac:dyDescent="0.75">
+    <row r="90" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A90" s="2">
         <v>3288</v>
       </c>
     </row>
-    <row r="91" spans="1:38" x14ac:dyDescent="0.75">
+    <row r="91" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A91" s="2">
         <v>3289</v>
       </c>
     </row>
-    <row r="92" spans="1:38" x14ac:dyDescent="0.75">
+    <row r="92" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A92" s="2">
         <v>3290</v>
       </c>
@@ -7395,12 +7395,12 @@
         <v>335.18000000000012</v>
       </c>
     </row>
-    <row r="93" spans="1:38" x14ac:dyDescent="0.75">
+    <row r="93" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A93" s="2">
         <v>3291</v>
       </c>
     </row>
-    <row r="94" spans="1:38" x14ac:dyDescent="0.75">
+    <row r="94" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A94" s="2">
         <v>3292</v>
       </c>
@@ -7516,7 +7516,7 @@
         <v>215.26</v>
       </c>
     </row>
-    <row r="95" spans="1:38" x14ac:dyDescent="0.75">
+    <row r="95" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A95" s="2">
         <v>3293</v>
       </c>
@@ -7632,7 +7632,7 @@
         <v>6.94</v>
       </c>
     </row>
-    <row r="96" spans="1:38" x14ac:dyDescent="0.75">
+    <row r="96" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A96" s="2">
         <v>3294</v>
       </c>
@@ -7748,7 +7748,7 @@
         <v>0.98</v>
       </c>
     </row>
-    <row r="97" spans="1:38" x14ac:dyDescent="0.75">
+    <row r="97" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A97" s="2">
         <v>3295</v>
       </c>
@@ -7864,7 +7864,7 @@
         <v>44.900000000000013</v>
       </c>
     </row>
-    <row r="98" spans="1:38" x14ac:dyDescent="0.75">
+    <row r="98" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A98" s="2">
         <v>3296</v>
       </c>
@@ -7980,7 +7980,7 @@
         <v>0.98</v>
       </c>
     </row>
-    <row r="99" spans="1:38" x14ac:dyDescent="0.75">
+    <row r="99" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A99" s="2">
         <v>3297</v>
       </c>
@@ -8096,7 +8096,7 @@
         <v>48.39</v>
       </c>
     </row>
-    <row r="100" spans="1:38" x14ac:dyDescent="0.75">
+    <row r="100" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A100" s="2">
         <v>3298</v>
       </c>
@@ -8212,7 +8212,7 @@
         <v>139.58000000000001</v>
       </c>
     </row>
-    <row r="101" spans="1:38" x14ac:dyDescent="0.75">
+    <row r="101" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A101" s="2">
         <v>3299</v>
       </c>
@@ -8328,7 +8328,7 @@
         <v>0.98</v>
       </c>
     </row>
-    <row r="102" spans="1:38" x14ac:dyDescent="0.75">
+    <row r="102" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A102" s="2">
         <v>3300</v>
       </c>
@@ -8444,12 +8444,12 @@
         <v>74.08</v>
       </c>
     </row>
-    <row r="103" spans="1:38" x14ac:dyDescent="0.75">
+    <row r="103" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A103" s="2">
         <v>3301</v>
       </c>
     </row>
-    <row r="104" spans="1:38" x14ac:dyDescent="0.75">
+    <row r="104" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A104" s="2">
         <v>3302</v>
       </c>
@@ -8565,7 +8565,7 @@
         <v>20.84</v>
       </c>
     </row>
-    <row r="105" spans="1:38" x14ac:dyDescent="0.75">
+    <row r="105" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A105" s="2">
         <v>3303</v>
       </c>
@@ -8681,22 +8681,22 @@
         <v>2.2799999999999998</v>
       </c>
     </row>
-    <row r="106" spans="1:38" x14ac:dyDescent="0.75">
+    <row r="106" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A106" s="2">
         <v>3304</v>
       </c>
     </row>
-    <row r="107" spans="1:38" x14ac:dyDescent="0.75">
+    <row r="107" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A107" s="2">
         <v>3305</v>
       </c>
     </row>
-    <row r="108" spans="1:38" x14ac:dyDescent="0.75">
+    <row r="108" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A108" s="2">
         <v>3306</v>
       </c>
     </row>
-    <row r="109" spans="1:38" x14ac:dyDescent="0.75">
+    <row r="109" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A109" s="2">
         <v>3307</v>
       </c>
@@ -8812,7 +8812,7 @@
         <v>2.4700000000000002</v>
       </c>
     </row>
-    <row r="110" spans="1:38" x14ac:dyDescent="0.75">
+    <row r="110" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A110" s="2">
         <v>3308</v>
       </c>
@@ -8928,7 +8928,7 @@
         <v>25.82</v>
       </c>
     </row>
-    <row r="111" spans="1:38" x14ac:dyDescent="0.75">
+    <row r="111" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A111" s="2">
         <v>3309</v>
       </c>
@@ -9044,12 +9044,12 @@
         <v>18.190000000000001</v>
       </c>
     </row>
-    <row r="112" spans="1:38" x14ac:dyDescent="0.75">
+    <row r="112" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A112" s="2">
         <v>3310</v>
       </c>
     </row>
-    <row r="113" spans="1:38" x14ac:dyDescent="0.75">
+    <row r="113" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A113" s="2">
         <v>3311</v>
       </c>
@@ -9165,7 +9165,7 @@
         <v>217.22</v>
       </c>
     </row>
-    <row r="114" spans="1:38" x14ac:dyDescent="0.75">
+    <row r="114" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A114" s="2">
         <v>3312</v>
       </c>
@@ -9281,7 +9281,7 @@
         <v>44.52</v>
       </c>
     </row>
-    <row r="115" spans="1:38" x14ac:dyDescent="0.75">
+    <row r="115" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A115" s="2">
         <v>3313</v>
       </c>
@@ -9397,7 +9397,7 @@
         <v>54.139999999999993</v>
       </c>
     </row>
-    <row r="116" spans="1:38" x14ac:dyDescent="0.75">
+    <row r="116" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A116" s="2">
         <v>3314</v>
       </c>
@@ -9513,12 +9513,12 @@
         <v>257.71000000000009</v>
       </c>
     </row>
-    <row r="117" spans="1:38" x14ac:dyDescent="0.75">
+    <row r="117" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A117" s="2">
         <v>3315</v>
       </c>
     </row>
-    <row r="118" spans="1:38" x14ac:dyDescent="0.75">
+    <row r="118" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A118" s="2">
         <v>3316</v>
       </c>
@@ -9634,7 +9634,7 @@
         <v>30.03</v>
       </c>
     </row>
-    <row r="119" spans="1:38" x14ac:dyDescent="0.75">
+    <row r="119" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A119" s="2">
         <v>3317</v>
       </c>
@@ -9750,7 +9750,7 @@
         <v>6.94</v>
       </c>
     </row>
-    <row r="120" spans="1:38" x14ac:dyDescent="0.75">
+    <row r="120" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A120" s="2">
         <v>3318</v>
       </c>
@@ -9866,7 +9866,7 @@
         <v>61.889999999999993</v>
       </c>
     </row>
-    <row r="121" spans="1:38" x14ac:dyDescent="0.75">
+    <row r="121" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A121" s="2">
         <v>3319</v>
       </c>
@@ -9982,7 +9982,7 @@
         <v>271.1099999999999</v>
       </c>
     </row>
-    <row r="122" spans="1:38" x14ac:dyDescent="0.75">
+    <row r="122" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A122" s="2">
         <v>3320</v>
       </c>
@@ -10098,17 +10098,17 @@
         <v>36</v>
       </c>
     </row>
-    <row r="123" spans="1:38" x14ac:dyDescent="0.75">
+    <row r="123" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A123" s="2">
         <v>3321</v>
       </c>
     </row>
-    <row r="124" spans="1:38" x14ac:dyDescent="0.75">
+    <row r="124" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A124" s="2">
         <v>3322</v>
       </c>
     </row>
-    <row r="125" spans="1:38" x14ac:dyDescent="0.75">
+    <row r="125" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A125" s="2">
         <v>3323</v>
       </c>
@@ -10224,17 +10224,17 @@
         <v>124.3900000000001</v>
       </c>
     </row>
-    <row r="126" spans="1:38" x14ac:dyDescent="0.75">
+    <row r="126" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A126" s="2">
         <v>3324</v>
       </c>
     </row>
-    <row r="127" spans="1:38" x14ac:dyDescent="0.75">
+    <row r="127" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A127" s="2">
         <v>3325</v>
       </c>
     </row>
-    <row r="128" spans="1:38" x14ac:dyDescent="0.75">
+    <row r="128" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A128" s="2">
         <v>3326</v>
       </c>
@@ -10350,7 +10350,7 @@
         <v>114.7800000000001</v>
       </c>
     </row>
-    <row r="129" spans="1:38" x14ac:dyDescent="0.75">
+    <row r="129" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A129" s="2">
         <v>3327</v>
       </c>
@@ -10466,12 +10466,12 @@
         <v>116.99</v>
       </c>
     </row>
-    <row r="130" spans="1:38" x14ac:dyDescent="0.75">
+    <row r="130" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A130" s="2">
         <v>3328</v>
       </c>
     </row>
-    <row r="131" spans="1:38" x14ac:dyDescent="0.75">
+    <row r="131" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A131" s="2">
         <v>3329</v>
       </c>
@@ -10587,7 +10587,7 @@
         <v>6.94</v>
       </c>
     </row>
-    <row r="132" spans="1:38" x14ac:dyDescent="0.75">
+    <row r="132" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A132" s="2">
         <v>3330</v>
       </c>
@@ -10703,17 +10703,17 @@
         <v>19.62</v>
       </c>
     </row>
-    <row r="133" spans="1:38" x14ac:dyDescent="0.75">
+    <row r="133" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A133" s="2">
         <v>3331</v>
       </c>
     </row>
-    <row r="134" spans="1:38" x14ac:dyDescent="0.75">
+    <row r="134" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A134" s="2">
         <v>3332</v>
       </c>
     </row>
-    <row r="135" spans="1:38" x14ac:dyDescent="0.75">
+    <row r="135" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A135" s="2">
         <v>3333</v>
       </c>
@@ -10829,7 +10829,7 @@
         <v>84.02000000000001</v>
       </c>
     </row>
-    <row r="136" spans="1:38" x14ac:dyDescent="0.75">
+    <row r="136" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A136" s="2">
         <v>3334</v>
       </c>
@@ -10945,7 +10945,7 @@
         <v>87.63000000000001</v>
       </c>
     </row>
-    <row r="137" spans="1:38" x14ac:dyDescent="0.75">
+    <row r="137" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A137" s="2">
         <v>3335</v>
       </c>
@@ -11061,7 +11061,7 @@
         <v>6.94</v>
       </c>
     </row>
-    <row r="138" spans="1:38" x14ac:dyDescent="0.75">
+    <row r="138" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A138" s="2">
         <v>3336</v>
       </c>
@@ -11177,7 +11177,7 @@
         <v>107.49</v>
       </c>
     </row>
-    <row r="139" spans="1:38" x14ac:dyDescent="0.75">
+    <row r="139" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A139" s="2">
         <v>3337</v>
       </c>
@@ -11293,12 +11293,12 @@
         <v>50.960000000000008</v>
       </c>
     </row>
-    <row r="140" spans="1:38" x14ac:dyDescent="0.75">
+    <row r="140" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A140" s="2">
         <v>3338</v>
       </c>
     </row>
-    <row r="141" spans="1:38" x14ac:dyDescent="0.75">
+    <row r="141" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A141" s="2">
         <v>3339</v>
       </c>
@@ -11414,7 +11414,7 @@
         <v>47.23</v>
       </c>
     </row>
-    <row r="142" spans="1:38" x14ac:dyDescent="0.75">
+    <row r="142" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A142" s="2">
         <v>3340</v>
       </c>
@@ -11530,12 +11530,12 @@
         <v>130.68</v>
       </c>
     </row>
-    <row r="143" spans="1:38" x14ac:dyDescent="0.75">
+    <row r="143" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A143" s="2">
         <v>3341</v>
       </c>
     </row>
-    <row r="144" spans="1:38" x14ac:dyDescent="0.75">
+    <row r="144" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A144" s="2">
         <v>3342</v>
       </c>
@@ -11651,17 +11651,17 @@
         <v>771.58000000000015</v>
       </c>
     </row>
-    <row r="145" spans="1:38" x14ac:dyDescent="0.75">
+    <row r="145" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A145" s="2">
         <v>3343</v>
       </c>
     </row>
-    <row r="146" spans="1:38" x14ac:dyDescent="0.75">
+    <row r="146" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A146" s="2">
         <v>3344</v>
       </c>
     </row>
-    <row r="147" spans="1:38" x14ac:dyDescent="0.75">
+    <row r="147" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A147" s="2">
         <v>3345</v>
       </c>
@@ -11777,12 +11777,12 @@
         <v>29.38</v>
       </c>
     </row>
-    <row r="148" spans="1:38" x14ac:dyDescent="0.75">
+    <row r="148" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A148" s="2">
         <v>3346</v>
       </c>
     </row>
-    <row r="149" spans="1:38" x14ac:dyDescent="0.75">
+    <row r="149" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A149" s="2">
         <v>3347</v>
       </c>
@@ -11898,7 +11898,7 @@
         <v>23.7</v>
       </c>
     </row>
-    <row r="150" spans="1:38" x14ac:dyDescent="0.75">
+    <row r="150" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A150" s="2">
         <v>3348</v>
       </c>
@@ -12014,7 +12014,7 @@
         <v>0.98</v>
       </c>
     </row>
-    <row r="151" spans="1:38" x14ac:dyDescent="0.75">
+    <row r="151" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A151" s="2">
         <v>3349</v>
       </c>
@@ -12130,7 +12130,7 @@
         <v>32.79999999999999</v>
       </c>
     </row>
-    <row r="152" spans="1:38" x14ac:dyDescent="0.75">
+    <row r="152" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A152" s="2">
         <v>3350</v>
       </c>
@@ -12246,7 +12246,7 @@
         <v>129.6</v>
       </c>
     </row>
-    <row r="153" spans="1:38" x14ac:dyDescent="0.75">
+    <row r="153" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A153" s="2">
         <v>3351</v>
       </c>
@@ -12362,7 +12362,7 @@
         <v>18.399999999999999</v>
       </c>
     </row>
-    <row r="154" spans="1:38" x14ac:dyDescent="0.75">
+    <row r="154" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A154" s="2">
         <v>3352</v>
       </c>
@@ -12478,7 +12478,7 @@
         <v>36.61</v>
       </c>
     </row>
-    <row r="155" spans="1:38" x14ac:dyDescent="0.75">
+    <row r="155" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A155" s="2">
         <v>3353</v>
       </c>
@@ -12594,7 +12594,7 @@
         <v>237.99999999999989</v>
       </c>
     </row>
-    <row r="156" spans="1:38" x14ac:dyDescent="0.75">
+    <row r="156" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A156" s="2">
         <v>3354</v>
       </c>
@@ -12710,7 +12710,7 @@
         <v>6.94</v>
       </c>
     </row>
-    <row r="157" spans="1:38" x14ac:dyDescent="0.75">
+    <row r="157" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A157" s="2">
         <v>3355</v>
       </c>
@@ -12826,7 +12826,7 @@
         <v>150.83999999999989</v>
       </c>
     </row>
-    <row r="158" spans="1:38" x14ac:dyDescent="0.75">
+    <row r="158" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A158" s="2">
         <v>3356</v>
       </c>
@@ -12942,7 +12942,7 @@
         <v>6.94</v>
       </c>
     </row>
-    <row r="159" spans="1:38" x14ac:dyDescent="0.75">
+    <row r="159" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A159" s="2">
         <v>3357</v>
       </c>
@@ -13058,7 +13058,7 @@
         <v>26.13</v>
       </c>
     </row>
-    <row r="160" spans="1:38" x14ac:dyDescent="0.75">
+    <row r="160" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A160" s="2">
         <v>3358</v>
       </c>
@@ -13174,7 +13174,7 @@
         <v>25.82</v>
       </c>
     </row>
-    <row r="161" spans="1:38" x14ac:dyDescent="0.75">
+    <row r="161" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A161" s="2">
         <v>3359</v>
       </c>
@@ -13290,7 +13290,7 @@
         <v>81.140000000000015</v>
       </c>
     </row>
-    <row r="162" spans="1:38" x14ac:dyDescent="0.75">
+    <row r="162" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A162" s="2">
         <v>3360</v>
       </c>
@@ -13406,7 +13406,7 @@
         <v>31.16</v>
       </c>
     </row>
-    <row r="163" spans="1:38" x14ac:dyDescent="0.75">
+    <row r="163" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A163" s="2">
         <v>3361</v>
       </c>
@@ -13522,7 +13522,7 @@
         <v>116.52</v>
       </c>
     </row>
-    <row r="164" spans="1:38" x14ac:dyDescent="0.75">
+    <row r="164" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A164" s="2">
         <v>3362</v>
       </c>
@@ -13638,17 +13638,17 @@
         <v>171.37</v>
       </c>
     </row>
-    <row r="165" spans="1:38" x14ac:dyDescent="0.75">
+    <row r="165" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A165" s="2">
         <v>3363</v>
       </c>
     </row>
-    <row r="166" spans="1:38" x14ac:dyDescent="0.75">
+    <row r="166" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A166" s="2">
         <v>3364</v>
       </c>
     </row>
-    <row r="167" spans="1:38" x14ac:dyDescent="0.75">
+    <row r="167" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A167" s="2">
         <v>3365</v>
       </c>
@@ -13764,7 +13764,7 @@
         <v>530.00000000000011</v>
       </c>
     </row>
-    <row r="168" spans="1:38" x14ac:dyDescent="0.75">
+    <row r="168" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A168" s="2">
         <v>3366</v>
       </c>
@@ -13880,7 +13880,7 @@
         <v>240.3</v>
       </c>
     </row>
-    <row r="169" spans="1:38" x14ac:dyDescent="0.75">
+    <row r="169" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A169" s="2">
         <v>3367</v>
       </c>
@@ -13996,7 +13996,7 @@
         <v>755.03000000000009</v>
       </c>
     </row>
-    <row r="170" spans="1:38" x14ac:dyDescent="0.75">
+    <row r="170" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A170" s="2">
         <v>3368</v>
       </c>
@@ -14112,12 +14112,12 @@
         <v>24.41</v>
       </c>
     </row>
-    <row r="171" spans="1:38" x14ac:dyDescent="0.75">
+    <row r="171" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A171" s="2">
         <v>3369</v>
       </c>
     </row>
-    <row r="172" spans="1:38" x14ac:dyDescent="0.75">
+    <row r="172" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A172" s="2">
         <v>3370</v>
       </c>
@@ -14233,7 +14233,7 @@
         <v>94.02</v>
       </c>
     </row>
-    <row r="173" spans="1:38" x14ac:dyDescent="0.75">
+    <row r="173" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A173" s="2">
         <v>3371</v>
       </c>
@@ -14349,7 +14349,7 @@
         <v>6.94</v>
       </c>
     </row>
-    <row r="174" spans="1:38" x14ac:dyDescent="0.75">
+    <row r="174" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A174" s="2">
         <v>3372</v>
       </c>
@@ -14465,12 +14465,12 @@
         <v>0.98</v>
       </c>
     </row>
-    <row r="175" spans="1:38" x14ac:dyDescent="0.75">
+    <row r="175" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A175" s="2">
         <v>3373</v>
       </c>
     </row>
-    <row r="176" spans="1:38" x14ac:dyDescent="0.75">
+    <row r="176" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A176" s="2">
         <v>3374</v>
       </c>
@@ -14586,12 +14586,12 @@
         <v>165.04</v>
       </c>
     </row>
-    <row r="177" spans="1:38" x14ac:dyDescent="0.75">
+    <row r="177" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A177" s="2">
         <v>3375</v>
       </c>
     </row>
-    <row r="178" spans="1:38" x14ac:dyDescent="0.75">
+    <row r="178" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A178" s="2">
         <v>3376</v>
       </c>
@@ -14707,7 +14707,7 @@
         <v>2.4700000000000002</v>
       </c>
     </row>
-    <row r="179" spans="1:38" x14ac:dyDescent="0.75">
+    <row r="179" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A179" s="2">
         <v>3377</v>
       </c>
@@ -14823,7 +14823,7 @@
         <v>416.69000000000011</v>
       </c>
     </row>
-    <row r="180" spans="1:38" x14ac:dyDescent="0.75">
+    <row r="180" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A180" s="2">
         <v>3378</v>
       </c>
@@ -14939,12 +14939,12 @@
         <v>12.45</v>
       </c>
     </row>
-    <row r="181" spans="1:38" x14ac:dyDescent="0.75">
+    <row r="181" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A181" s="2">
         <v>3379</v>
       </c>
     </row>
-    <row r="182" spans="1:38" x14ac:dyDescent="0.75">
+    <row r="182" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A182" s="2">
         <v>3380</v>
       </c>
@@ -15060,7 +15060,7 @@
         <v>0.98</v>
       </c>
     </row>
-    <row r="183" spans="1:38" x14ac:dyDescent="0.75">
+    <row r="183" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A183" s="2">
         <v>3381</v>
       </c>
@@ -15176,12 +15176,12 @@
         <v>102</v>
       </c>
     </row>
-    <row r="184" spans="1:38" x14ac:dyDescent="0.75">
+    <row r="184" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A184" s="2">
         <v>3382</v>
       </c>
     </row>
-    <row r="185" spans="1:38" x14ac:dyDescent="0.75">
+    <row r="185" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A185" s="2">
         <v>3383</v>
       </c>
@@ -15297,7 +15297,7 @@
         <v>81.42</v>
       </c>
     </row>
-    <row r="186" spans="1:38" x14ac:dyDescent="0.75">
+    <row r="186" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A186" s="2">
         <v>3384</v>
       </c>
@@ -15413,12 +15413,12 @@
         <v>316.00000000000011</v>
       </c>
     </row>
-    <row r="187" spans="1:38" x14ac:dyDescent="0.75">
+    <row r="187" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A187" s="2">
         <v>3385</v>
       </c>
     </row>
-    <row r="188" spans="1:38" x14ac:dyDescent="0.75">
+    <row r="188" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A188" s="2">
         <v>3386</v>
       </c>
@@ -15534,7 +15534,7 @@
         <v>6.94</v>
       </c>
     </row>
-    <row r="189" spans="1:38" x14ac:dyDescent="0.75">
+    <row r="189" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A189" s="2">
         <v>3387</v>
       </c>
@@ -15650,7 +15650,7 @@
         <v>33.009999999999991</v>
       </c>
     </row>
-    <row r="190" spans="1:38" x14ac:dyDescent="0.75">
+    <row r="190" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A190" s="2">
         <v>3388</v>
       </c>
@@ -15766,12 +15766,12 @@
         <v>103.61</v>
       </c>
     </row>
-    <row r="191" spans="1:38" x14ac:dyDescent="0.75">
+    <row r="191" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A191" s="2">
         <v>3389</v>
       </c>
     </row>
-    <row r="192" spans="1:38" x14ac:dyDescent="0.75">
+    <row r="192" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A192" s="2">
         <v>3390</v>
       </c>
@@ -15887,27 +15887,27 @@
         <v>116.64</v>
       </c>
     </row>
-    <row r="193" spans="1:38" x14ac:dyDescent="0.75">
+    <row r="193" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A193" s="2">
         <v>3391</v>
       </c>
     </row>
-    <row r="194" spans="1:38" x14ac:dyDescent="0.75">
+    <row r="194" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A194" s="2">
         <v>3392</v>
       </c>
     </row>
-    <row r="195" spans="1:38" x14ac:dyDescent="0.75">
+    <row r="195" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A195" s="2">
         <v>3393</v>
       </c>
     </row>
-    <row r="196" spans="1:38" x14ac:dyDescent="0.75">
+    <row r="196" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A196" s="2">
         <v>3394</v>
       </c>
     </row>
-    <row r="197" spans="1:38" x14ac:dyDescent="0.75">
+    <row r="197" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A197" s="2">
         <v>3395</v>
       </c>
@@ -16023,7 +16023,7 @@
         <v>327.11999999999989</v>
       </c>
     </row>
-    <row r="198" spans="1:38" x14ac:dyDescent="0.75">
+    <row r="198" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A198" s="2">
         <v>3396</v>
       </c>
@@ -16139,7 +16139,7 @@
         <v>326.99999999999989</v>
       </c>
     </row>
-    <row r="199" spans="1:38" x14ac:dyDescent="0.75">
+    <row r="199" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A199" s="2">
         <v>3397</v>
       </c>
@@ -16255,7 +16255,7 @@
         <v>2.4700000000000002</v>
       </c>
     </row>
-    <row r="200" spans="1:38" x14ac:dyDescent="0.75">
+    <row r="200" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A200" s="2">
         <v>3398</v>
       </c>
@@ -16371,7 +16371,7 @@
         <v>340.99999999999989</v>
       </c>
     </row>
-    <row r="201" spans="1:38" x14ac:dyDescent="0.75">
+    <row r="201" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A201" s="2">
         <v>3399</v>
       </c>
@@ -16487,7 +16487,7 @@
         <v>19.440000000000001</v>
       </c>
     </row>
-    <row r="202" spans="1:38" x14ac:dyDescent="0.75">
+    <row r="202" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A202" s="2">
         <v>3400</v>
       </c>
@@ -16603,7 +16603,7 @@
         <v>222.00000000000011</v>
       </c>
     </row>
-    <row r="203" spans="1:38" x14ac:dyDescent="0.75">
+    <row r="203" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A203" s="2">
         <v>3401</v>
       </c>
@@ -16719,12 +16719,12 @@
         <v>656.17000000000007</v>
       </c>
     </row>
-    <row r="204" spans="1:38" x14ac:dyDescent="0.75">
+    <row r="204" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A204" s="2">
         <v>3402</v>
       </c>
     </row>
-    <row r="205" spans="1:38" x14ac:dyDescent="0.75">
+    <row r="205" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A205" s="2">
         <v>3403</v>
       </c>
@@ -16840,7 +16840,7 @@
         <v>139.58000000000001</v>
       </c>
     </row>
-    <row r="206" spans="1:38" x14ac:dyDescent="0.75">
+    <row r="206" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A206" s="2">
         <v>3404</v>
       </c>
@@ -16956,7 +16956,7 @@
         <v>0.98</v>
       </c>
     </row>
-    <row r="207" spans="1:38" x14ac:dyDescent="0.75">
+    <row r="207" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A207" s="2">
         <v>3405</v>
       </c>
@@ -17072,7 +17072,7 @@
         <v>0.98</v>
       </c>
     </row>
-    <row r="208" spans="1:38" x14ac:dyDescent="0.75">
+    <row r="208" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A208" s="2">
         <v>3406</v>
       </c>
@@ -17188,7 +17188,7 @@
         <v>349.62000000000012</v>
       </c>
     </row>
-    <row r="209" spans="1:38" x14ac:dyDescent="0.75">
+    <row r="209" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A209" s="2">
         <v>3407</v>
       </c>
@@ -17304,12 +17304,12 @@
         <v>49.35</v>
       </c>
     </row>
-    <row r="210" spans="1:38" x14ac:dyDescent="0.75">
+    <row r="210" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A210" s="2">
         <v>3408</v>
       </c>
     </row>
-    <row r="211" spans="1:38" x14ac:dyDescent="0.75">
+    <row r="211" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A211" s="2">
         <v>3409</v>
       </c>
@@ -17425,7 +17425,7 @@
         <v>368.99999999999989</v>
       </c>
     </row>
-    <row r="212" spans="1:38" x14ac:dyDescent="0.75">
+    <row r="212" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A212" s="2">
         <v>3410</v>
       </c>
@@ -17541,7 +17541,7 @@
         <v>0.98</v>
       </c>
     </row>
-    <row r="213" spans="1:38" x14ac:dyDescent="0.75">
+    <row r="213" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A213" s="2">
         <v>3411</v>
       </c>
@@ -17657,17 +17657,17 @@
         <v>77.03</v>
       </c>
     </row>
-    <row r="214" spans="1:38" x14ac:dyDescent="0.75">
+    <row r="214" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A214" s="2">
         <v>3412</v>
       </c>
     </row>
-    <row r="215" spans="1:38" x14ac:dyDescent="0.75">
+    <row r="215" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A215" s="2">
         <v>3413</v>
       </c>
     </row>
-    <row r="216" spans="1:38" x14ac:dyDescent="0.75">
+    <row r="216" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A216" s="2">
         <v>3414</v>
       </c>
@@ -17783,7 +17783,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="217" spans="1:38" x14ac:dyDescent="0.75">
+    <row r="217" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A217" s="2">
         <v>3415</v>
       </c>
@@ -17899,7 +17899,7 @@
         <v>15.35</v>
       </c>
     </row>
-    <row r="218" spans="1:38" x14ac:dyDescent="0.75">
+    <row r="218" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A218" s="2">
         <v>3416</v>
       </c>
@@ -18015,7 +18015,7 @@
         <v>6.47</v>
       </c>
     </row>
-    <row r="219" spans="1:38" x14ac:dyDescent="0.75">
+    <row r="219" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A219" s="2">
         <v>3417</v>
       </c>
@@ -18131,7 +18131,7 @@
         <v>160.99999999999989</v>
       </c>
     </row>
-    <row r="220" spans="1:38" x14ac:dyDescent="0.75">
+    <row r="220" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A220" s="2">
         <v>3418</v>
       </c>
@@ -18247,12 +18247,12 @@
         <v>0.98</v>
       </c>
     </row>
-    <row r="221" spans="1:38" x14ac:dyDescent="0.75">
+    <row r="221" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A221" s="2">
         <v>3419</v>
       </c>
     </row>
-    <row r="222" spans="1:38" x14ac:dyDescent="0.75">
+    <row r="222" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A222" s="2">
         <v>3420</v>
       </c>
@@ -18368,12 +18368,12 @@
         <v>101</v>
       </c>
     </row>
-    <row r="223" spans="1:38" x14ac:dyDescent="0.75">
+    <row r="223" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A223" s="2">
         <v>3421</v>
       </c>
     </row>
-    <row r="224" spans="1:38" x14ac:dyDescent="0.75">
+    <row r="224" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A224" s="2">
         <v>3422</v>
       </c>
@@ -18489,7 +18489,7 @@
         <v>339.59999999999991</v>
       </c>
     </row>
-    <row r="225" spans="1:38" x14ac:dyDescent="0.75">
+    <row r="225" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A225" s="2">
         <v>3423</v>
       </c>
@@ -18605,12 +18605,12 @@
         <v>288.16000000000008</v>
       </c>
     </row>
-    <row r="226" spans="1:38" x14ac:dyDescent="0.75">
+    <row r="226" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A226" s="2">
         <v>3424</v>
       </c>
     </row>
-    <row r="227" spans="1:38" x14ac:dyDescent="0.75">
+    <row r="227" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A227" s="2">
         <v>3425</v>
       </c>
@@ -18726,7 +18726,7 @@
         <v>334.56000000000012</v>
       </c>
     </row>
-    <row r="228" spans="1:38" x14ac:dyDescent="0.75">
+    <row r="228" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A228" s="2">
         <v>3426</v>
       </c>
@@ -18842,12 +18842,12 @@
         <v>35.310000000000009</v>
       </c>
     </row>
-    <row r="229" spans="1:38" x14ac:dyDescent="0.75">
+    <row r="229" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A229" s="2">
         <v>3427</v>
       </c>
     </row>
-    <row r="230" spans="1:38" x14ac:dyDescent="0.75">
+    <row r="230" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A230" s="2">
         <v>3428</v>
       </c>
@@ -18963,7 +18963,7 @@
         <v>175.50000000000011</v>
       </c>
     </row>
-    <row r="231" spans="1:38" x14ac:dyDescent="0.75">
+    <row r="231" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A231" s="2">
         <v>3429</v>
       </c>
@@ -19079,7 +19079,7 @@
         <v>243.27</v>
       </c>
     </row>
-    <row r="232" spans="1:38" x14ac:dyDescent="0.75">
+    <row r="232" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A232" s="2">
         <v>3430</v>
       </c>
@@ -19195,7 +19195,7 @@
         <v>20.84</v>
       </c>
     </row>
-    <row r="233" spans="1:38" x14ac:dyDescent="0.75">
+    <row r="233" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A233" s="2">
         <v>3431</v>
       </c>
@@ -19311,7 +19311,7 @@
         <v>15.96</v>
       </c>
     </row>
-    <row r="234" spans="1:38" x14ac:dyDescent="0.75">
+    <row r="234" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A234" s="2">
         <v>3432</v>
       </c>
@@ -19427,7 +19427,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="235" spans="1:38" x14ac:dyDescent="0.75">
+    <row r="235" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A235" s="2">
         <v>3433</v>
       </c>
@@ -19543,7 +19543,7 @@
         <v>168.27999999999989</v>
       </c>
     </row>
-    <row r="236" spans="1:38" x14ac:dyDescent="0.75">
+    <row r="236" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A236" s="2">
         <v>3434</v>
       </c>
@@ -19659,7 +19659,7 @@
         <v>44.03</v>
       </c>
     </row>
-    <row r="237" spans="1:38" x14ac:dyDescent="0.75">
+    <row r="237" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A237" s="2">
         <v>3435</v>
       </c>
@@ -19775,7 +19775,7 @@
         <v>97.160000000000011</v>
       </c>
     </row>
-    <row r="238" spans="1:38" x14ac:dyDescent="0.75">
+    <row r="238" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A238" s="2">
         <v>3436</v>
       </c>
@@ -19891,7 +19891,7 @@
         <v>6.94</v>
       </c>
     </row>
-    <row r="239" spans="1:38" x14ac:dyDescent="0.75">
+    <row r="239" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A239" s="2">
         <v>3437</v>
       </c>
@@ -20007,7 +20007,7 @@
         <v>20.84</v>
       </c>
     </row>
-    <row r="240" spans="1:38" x14ac:dyDescent="0.75">
+    <row r="240" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A240" s="2">
         <v>3438</v>
       </c>
@@ -20123,7 +20123,7 @@
         <v>186.53000000000009</v>
       </c>
     </row>
-    <row r="241" spans="1:38" x14ac:dyDescent="0.75">
+    <row r="241" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A241" s="2">
         <v>3439</v>
       </c>
@@ -20239,7 +20239,7 @@
         <v>400.49999999999977</v>
       </c>
     </row>
-    <row r="242" spans="1:38" x14ac:dyDescent="0.75">
+    <row r="242" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A242" s="2">
         <v>3440</v>
       </c>
@@ -20355,12 +20355,12 @@
         <v>229.63000000000011</v>
       </c>
     </row>
-    <row r="243" spans="1:38" x14ac:dyDescent="0.75">
+    <row r="243" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A243" s="2">
         <v>3441</v>
       </c>
     </row>
-    <row r="244" spans="1:38" x14ac:dyDescent="0.75">
+    <row r="244" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A244" s="2">
         <v>3442</v>
       </c>
@@ -20476,7 +20476,7 @@
         <v>181.99999999999989</v>
       </c>
     </row>
-    <row r="245" spans="1:38" x14ac:dyDescent="0.75">
+    <row r="245" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A245" s="2">
         <v>3443</v>
       </c>
@@ -20592,7 +20592,7 @@
         <v>437.57000000000022</v>
       </c>
     </row>
-    <row r="246" spans="1:38" x14ac:dyDescent="0.75">
+    <row r="246" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A246" s="2">
         <v>3444</v>
       </c>
@@ -20708,7 +20708,7 @@
         <v>23.999999999999989</v>
       </c>
     </row>
-    <row r="247" spans="1:38" x14ac:dyDescent="0.75">
+    <row r="247" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A247" s="2">
         <v>3445</v>
       </c>
@@ -20824,7 +20824,7 @@
         <v>193.45</v>
       </c>
     </row>
-    <row r="248" spans="1:38" x14ac:dyDescent="0.75">
+    <row r="248" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A248" s="2">
         <v>3446</v>
       </c>
@@ -20940,12 +20940,12 @@
         <v>26.309999999999992</v>
       </c>
     </row>
-    <row r="249" spans="1:38" x14ac:dyDescent="0.75">
+    <row r="249" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A249" s="2">
         <v>3447</v>
       </c>
     </row>
-    <row r="250" spans="1:38" x14ac:dyDescent="0.75">
+    <row r="250" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A250" s="2">
         <v>3448</v>
       </c>
@@ -21061,7 +21061,7 @@
         <v>15.96</v>
       </c>
     </row>
-    <row r="251" spans="1:38" x14ac:dyDescent="0.75">
+    <row r="251" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A251" s="2">
         <v>3449</v>
       </c>
@@ -21177,12 +21177,12 @@
         <v>64.360000000000014</v>
       </c>
     </row>
-    <row r="252" spans="1:38" x14ac:dyDescent="0.75">
+    <row r="252" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A252" s="2">
         <v>3450</v>
       </c>
     </row>
-    <row r="253" spans="1:38" x14ac:dyDescent="0.75">
+    <row r="253" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A253" s="2">
         <v>3451</v>
       </c>
@@ -21298,7 +21298,7 @@
         <v>183.16</v>
       </c>
     </row>
-    <row r="254" spans="1:38" x14ac:dyDescent="0.75">
+    <row r="254" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A254" s="2">
         <v>3452</v>
       </c>
@@ -21414,22 +21414,22 @@
         <v>229.89</v>
       </c>
     </row>
-    <row r="255" spans="1:38" x14ac:dyDescent="0.75">
+    <row r="255" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A255" s="2">
         <v>3453</v>
       </c>
     </row>
-    <row r="256" spans="1:38" x14ac:dyDescent="0.75">
+    <row r="256" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A256" s="2">
         <v>3454</v>
       </c>
     </row>
-    <row r="257" spans="1:38" x14ac:dyDescent="0.75">
+    <row r="257" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A257" s="2">
         <v>3455</v>
       </c>
     </row>
-    <row r="258" spans="1:38" x14ac:dyDescent="0.75">
+    <row r="258" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A258" s="2">
         <v>3456</v>
       </c>
@@ -21545,7 +21545,7 @@
         <v>111.4</v>
       </c>
     </row>
-    <row r="259" spans="1:38" x14ac:dyDescent="0.75">
+    <row r="259" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A259" s="2">
         <v>3457</v>
       </c>
@@ -21661,7 +21661,7 @@
         <v>107.49</v>
       </c>
     </row>
-    <row r="260" spans="1:38" x14ac:dyDescent="0.75">
+    <row r="260" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A260" s="2">
         <v>3458</v>
       </c>
@@ -21777,7 +21777,7 @@
         <v>8.98</v>
       </c>
     </row>
-    <row r="261" spans="1:38" x14ac:dyDescent="0.75">
+    <row r="261" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A261" s="2">
         <v>3459</v>
       </c>
@@ -21893,12 +21893,12 @@
         <v>136</v>
       </c>
     </row>
-    <row r="262" spans="1:38" x14ac:dyDescent="0.75">
+    <row r="262" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A262" s="2">
         <v>3460</v>
       </c>
     </row>
-    <row r="263" spans="1:38" x14ac:dyDescent="0.75">
+    <row r="263" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A263" s="2">
         <v>3461</v>
       </c>
@@ -22014,7 +22014,7 @@
         <v>89.34</v>
       </c>
     </row>
-    <row r="264" spans="1:38" x14ac:dyDescent="0.75">
+    <row r="264" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A264" s="2">
         <v>3462</v>
       </c>
@@ -22130,7 +22130,7 @@
         <v>29.51</v>
       </c>
     </row>
-    <row r="265" spans="1:38" x14ac:dyDescent="0.75">
+    <row r="265" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A265" s="2">
         <v>3463</v>
       </c>
@@ -22246,7 +22246,7 @@
         <v>146.96</v>
       </c>
     </row>
-    <row r="266" spans="1:38" x14ac:dyDescent="0.75">
+    <row r="266" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A266" s="2">
         <v>3464</v>
       </c>
@@ -22362,7 +22362,7 @@
         <v>67.889999999999986</v>
       </c>
     </row>
-    <row r="267" spans="1:38" x14ac:dyDescent="0.75">
+    <row r="267" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A267" s="2">
         <v>3465</v>
       </c>
@@ -22478,7 +22478,7 @@
         <v>193.4799999999999</v>
       </c>
     </row>
-    <row r="268" spans="1:38" x14ac:dyDescent="0.75">
+    <row r="268" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A268" s="2">
         <v>3466</v>
       </c>
@@ -22594,7 +22594,7 @@
         <v>127.9800000000001</v>
       </c>
     </row>
-    <row r="269" spans="1:38" x14ac:dyDescent="0.75">
+    <row r="269" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A269" s="2">
         <v>3467</v>
       </c>
@@ -22710,7 +22710,7 @@
         <v>216.1399999999999</v>
       </c>
     </row>
-    <row r="270" spans="1:38" x14ac:dyDescent="0.75">
+    <row r="270" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A270" s="2">
         <v>3468</v>
       </c>
@@ -22826,7 +22826,7 @@
         <v>86.830000000000013</v>
       </c>
     </row>
-    <row r="271" spans="1:38" x14ac:dyDescent="0.75">
+    <row r="271" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A271" s="2">
         <v>3469</v>
       </c>
@@ -22942,7 +22942,7 @@
         <v>339.99999999999977</v>
       </c>
     </row>
-    <row r="272" spans="1:38" x14ac:dyDescent="0.75">
+    <row r="272" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A272" s="2">
         <v>3470</v>
       </c>
@@ -23058,12 +23058,12 @@
         <v>817.23000000000013</v>
       </c>
     </row>
-    <row r="273" spans="1:38" x14ac:dyDescent="0.75">
+    <row r="273" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A273" s="2">
         <v>3471</v>
       </c>
     </row>
-    <row r="274" spans="1:38" x14ac:dyDescent="0.75">
+    <row r="274" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A274" s="2">
         <v>3472</v>
       </c>
@@ -23179,7 +23179,7 @@
         <v>4.26</v>
       </c>
     </row>
-    <row r="275" spans="1:38" x14ac:dyDescent="0.75">
+    <row r="275" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A275" s="2">
         <v>3473</v>
       </c>
@@ -23295,12 +23295,12 @@
         <v>324.81000000000012</v>
       </c>
     </row>
-    <row r="276" spans="1:38" x14ac:dyDescent="0.75">
+    <row r="276" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A276" s="2">
         <v>3474</v>
       </c>
     </row>
-    <row r="277" spans="1:38" x14ac:dyDescent="0.75">
+    <row r="277" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A277" s="2">
         <v>3475</v>
       </c>
@@ -23416,7 +23416,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="278" spans="1:38" x14ac:dyDescent="0.75">
+    <row r="278" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A278" s="2">
         <v>3476</v>
       </c>
@@ -23532,7 +23532,7 @@
         <v>116.23</v>
       </c>
     </row>
-    <row r="279" spans="1:38" x14ac:dyDescent="0.75">
+    <row r="279" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A279" s="2">
         <v>3477</v>
       </c>
@@ -23648,12 +23648,12 @@
         <v>606.99999999999989</v>
       </c>
     </row>
-    <row r="280" spans="1:38" x14ac:dyDescent="0.75">
+    <row r="280" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A280" s="2">
         <v>3478</v>
       </c>
     </row>
-    <row r="281" spans="1:38" x14ac:dyDescent="0.75">
+    <row r="281" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A281" s="2">
         <v>3479</v>
       </c>
@@ -23766,7 +23766,7 @@
         <v>111.4</v>
       </c>
     </row>
-    <row r="282" spans="1:38" x14ac:dyDescent="0.75">
+    <row r="282" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A282" s="2">
         <v>3480</v>
       </c>
@@ -23882,12 +23882,12 @@
         <v>103.92</v>
       </c>
     </row>
-    <row r="283" spans="1:38" x14ac:dyDescent="0.75">
+    <row r="283" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A283" s="2">
         <v>3481</v>
       </c>
     </row>
-    <row r="284" spans="1:38" x14ac:dyDescent="0.75">
+    <row r="284" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A284" s="2">
         <v>3482</v>
       </c>
@@ -24003,7 +24003,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="285" spans="1:38" x14ac:dyDescent="0.75">
+    <row r="285" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A285" s="2">
         <v>3483</v>
       </c>
@@ -24119,7 +24119,7 @@
         <v>25.73</v>
       </c>
     </row>
-    <row r="286" spans="1:38" x14ac:dyDescent="0.75">
+    <row r="286" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A286" s="2">
         <v>3484</v>
       </c>
@@ -24235,7 +24235,7 @@
         <v>969.35999999999979</v>
       </c>
     </row>
-    <row r="287" spans="1:38" x14ac:dyDescent="0.75">
+    <row r="287" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A287" s="2">
         <v>3485</v>
       </c>
@@ -24351,7 +24351,7 @@
         <v>24.93</v>
       </c>
     </row>
-    <row r="288" spans="1:38" x14ac:dyDescent="0.75">
+    <row r="288" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A288" s="2">
         <v>3486</v>
       </c>
@@ -24467,7 +24467,7 @@
         <v>94.02</v>
       </c>
     </row>
-    <row r="289" spans="1:38" x14ac:dyDescent="0.75">
+    <row r="289" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A289" s="2">
         <v>3487</v>
       </c>
@@ -24583,12 +24583,12 @@
         <v>2.4700000000000002</v>
       </c>
     </row>
-    <row r="290" spans="1:38" x14ac:dyDescent="0.75">
+    <row r="290" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A290" s="2">
         <v>3488</v>
       </c>
     </row>
-    <row r="291" spans="1:38" x14ac:dyDescent="0.75">
+    <row r="291" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A291" s="2">
         <v>3489</v>
       </c>
@@ -24704,12 +24704,12 @@
         <v>206.26</v>
       </c>
     </row>
-    <row r="292" spans="1:38" x14ac:dyDescent="0.75">
+    <row r="292" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A292" s="2">
         <v>3490</v>
       </c>
     </row>
-    <row r="293" spans="1:38" x14ac:dyDescent="0.75">
+    <row r="293" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A293" s="2">
         <v>3491</v>
       </c>
@@ -24825,7 +24825,7 @@
         <v>9.9499999999999993</v>
       </c>
     </row>
-    <row r="294" spans="1:38" x14ac:dyDescent="0.75">
+    <row r="294" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A294" s="2">
         <v>3492</v>
       </c>
@@ -24941,7 +24941,7 @@
         <v>32.79999999999999</v>
       </c>
     </row>
-    <row r="295" spans="1:38" x14ac:dyDescent="0.75">
+    <row r="295" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A295" s="2">
         <v>3493</v>
       </c>
@@ -25057,22 +25057,22 @@
         <v>293.97000000000003</v>
       </c>
     </row>
-    <row r="296" spans="1:38" x14ac:dyDescent="0.75">
+    <row r="296" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A296" s="2">
         <v>3494</v>
       </c>
     </row>
-    <row r="297" spans="1:38" x14ac:dyDescent="0.75">
+    <row r="297" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A297" s="2">
         <v>3495</v>
       </c>
     </row>
-    <row r="298" spans="1:38" x14ac:dyDescent="0.75">
+    <row r="298" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A298" s="2">
         <v>3496</v>
       </c>
     </row>
-    <row r="299" spans="1:38" x14ac:dyDescent="0.75">
+    <row r="299" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A299" s="2">
         <v>3497</v>
       </c>
@@ -25188,7 +25188,7 @@
         <v>145.28000000000009</v>
       </c>
     </row>
-    <row r="300" spans="1:38" x14ac:dyDescent="0.75">
+    <row r="300" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A300" s="2">
         <v>3498</v>
       </c>
@@ -25304,7 +25304,7 @@
         <v>737.31999999999971</v>
       </c>
     </row>
-    <row r="301" spans="1:38" x14ac:dyDescent="0.75">
+    <row r="301" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A301" s="2">
         <v>3499</v>
       </c>
@@ -25420,7 +25420,7 @@
         <v>2.4700000000000002</v>
       </c>
     </row>
-    <row r="302" spans="1:38" x14ac:dyDescent="0.75">
+    <row r="302" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A302" s="2">
         <v>3500</v>
       </c>
@@ -25536,12 +25536,12 @@
         <v>142.05000000000001</v>
       </c>
     </row>
-    <row r="303" spans="1:38" x14ac:dyDescent="0.75">
+    <row r="303" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A303" s="2">
         <v>3501</v>
       </c>
     </row>
-    <row r="304" spans="1:38" x14ac:dyDescent="0.75">
+    <row r="304" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A304" s="2">
         <v>3502</v>
       </c>
@@ -25657,17 +25657,17 @@
         <v>187.92</v>
       </c>
     </row>
-    <row r="305" spans="1:38" x14ac:dyDescent="0.75">
+    <row r="305" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A305" s="2">
         <v>3503</v>
       </c>
     </row>
-    <row r="306" spans="1:38" x14ac:dyDescent="0.75">
+    <row r="306" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A306" s="2">
         <v>3504</v>
       </c>
     </row>
-    <row r="307" spans="1:38" x14ac:dyDescent="0.75">
+    <row r="307" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A307" s="2">
         <v>3505</v>
       </c>
@@ -25783,7 +25783,7 @@
         <v>15.96</v>
       </c>
     </row>
-    <row r="308" spans="1:38" x14ac:dyDescent="0.75">
+    <row r="308" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A308" s="2">
         <v>3506</v>
       </c>
@@ -25899,7 +25899,7 @@
         <v>59.229999999999983</v>
       </c>
     </row>
-    <row r="309" spans="1:38" x14ac:dyDescent="0.75">
+    <row r="309" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A309" s="2">
         <v>3507</v>
       </c>
